--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H2">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>263.9656212082151</v>
+        <v>1116.514819004561</v>
       </c>
       <c r="R2">
-        <v>263.9656212082151</v>
+        <v>10048.63337104105</v>
       </c>
       <c r="S2">
-        <v>0.0009144653215089148</v>
+        <v>0.003261544610417927</v>
       </c>
       <c r="T2">
-        <v>0.0009144653215089148</v>
+        <v>0.003261544610417928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H3">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>150.7581306107894</v>
+        <v>527.3872002044682</v>
       </c>
       <c r="R3">
-        <v>150.7581306107894</v>
+        <v>4746.484801840214</v>
       </c>
       <c r="S3">
-        <v>0.0005222766576497954</v>
+        <v>0.001540594760725032</v>
       </c>
       <c r="T3">
-        <v>0.0005222766576497954</v>
+        <v>0.001540594760725032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H4">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>158.1456968025039</v>
+        <v>518.0210572409509</v>
       </c>
       <c r="R4">
-        <v>158.1456968025039</v>
+        <v>4662.189515168559</v>
       </c>
       <c r="S4">
-        <v>0.0005478696612453121</v>
+        <v>0.001513234538914184</v>
       </c>
       <c r="T4">
-        <v>0.0005478696612453121</v>
+        <v>0.001513234538914184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H5">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>73.9044830973657</v>
+        <v>246.5170629765165</v>
       </c>
       <c r="R5">
-        <v>73.9044830973657</v>
+        <v>2218.653566788649</v>
       </c>
       <c r="S5">
-        <v>0.0002560298821764877</v>
+        <v>0.000720121564390835</v>
       </c>
       <c r="T5">
-        <v>0.0002560298821764877</v>
+        <v>0.0007201215643908351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H6">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>4.644252791709977</v>
+        <v>21.54488671829355</v>
       </c>
       <c r="R6">
-        <v>4.644252791709977</v>
+        <v>193.903980464642</v>
       </c>
       <c r="S6">
-        <v>1.608924716370438E-05</v>
+        <v>6.293656650322352E-05</v>
       </c>
       <c r="T6">
-        <v>1.608924716370438E-05</v>
+        <v>6.293656650322353E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H7">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I7">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J7">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>104357.5592467802</v>
+        <v>136303.0772524844</v>
       </c>
       <c r="R7">
-        <v>104357.5592467802</v>
+        <v>1226727.69527236</v>
       </c>
       <c r="S7">
-        <v>0.361529537565108</v>
+        <v>0.3981662933883576</v>
       </c>
       <c r="T7">
-        <v>0.361529537565108</v>
+        <v>0.3981662933883577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H8">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>59601.51354232355</v>
+        <v>64382.93255751894</v>
       </c>
       <c r="R8">
-        <v>59601.51354232355</v>
+        <v>579446.3930176705</v>
       </c>
       <c r="S8">
-        <v>0.2064796051638356</v>
+        <v>0.1880743570184705</v>
       </c>
       <c r="T8">
-        <v>0.2064796051638356</v>
+        <v>0.1880743570184706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H9">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>62522.15287790294</v>
+        <v>63239.52264823327</v>
       </c>
       <c r="R9">
-        <v>62522.15287790294</v>
+        <v>569155.7038340995</v>
       </c>
       <c r="S9">
-        <v>0.2165976780280116</v>
+        <v>0.1847342469154502</v>
       </c>
       <c r="T9">
-        <v>0.2165976780280116</v>
+        <v>0.1847342469154502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H10">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>29217.78767301073</v>
+        <v>30094.57080820568</v>
       </c>
       <c r="R10">
-        <v>29217.78767301073</v>
+        <v>270851.1372738511</v>
       </c>
       <c r="S10">
-        <v>0.1012202023728817</v>
+        <v>0.08791176216528387</v>
       </c>
       <c r="T10">
-        <v>0.1012202023728817</v>
+        <v>0.08791176216528389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H11">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N11">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q11">
-        <v>1836.083364377204</v>
+        <v>2630.179473459901</v>
       </c>
       <c r="R11">
-        <v>1836.083364377204</v>
+        <v>23671.6152611391</v>
       </c>
       <c r="S11">
-        <v>0.006360807731086897</v>
+        <v>0.007683236747133545</v>
       </c>
       <c r="T11">
-        <v>0.006360807731086897</v>
+        <v>0.007683236747133546</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H12">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I12">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J12">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N12">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q12">
-        <v>64.47810986041362</v>
+        <v>108.155541541327</v>
       </c>
       <c r="R12">
-        <v>64.47810986041362</v>
+        <v>973.3998738719429</v>
       </c>
       <c r="S12">
-        <v>0.0002233737681214195</v>
+        <v>0.0003159421779242021</v>
       </c>
       <c r="T12">
-        <v>0.0002233737681214195</v>
+        <v>0.0003159421779242021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H13">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I13">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J13">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N13">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q13">
-        <v>36.82524740676551</v>
+        <v>51.08740812856644</v>
       </c>
       <c r="R13">
-        <v>36.82524740676551</v>
+        <v>459.786673157098</v>
       </c>
       <c r="S13">
-        <v>0.0001275749908466683</v>
+        <v>0.0001492356911039497</v>
       </c>
       <c r="T13">
-        <v>0.0001275749908466683</v>
+        <v>0.0001492356911039497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H14">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N14">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q14">
-        <v>38.62978658247398</v>
+        <v>50.18012033701178</v>
       </c>
       <c r="R14">
-        <v>38.62978658247398</v>
+        <v>451.621083033106</v>
       </c>
       <c r="S14">
-        <v>0.0001338265189431549</v>
+        <v>0.0001465853370233103</v>
       </c>
       <c r="T14">
-        <v>0.0001338265189431549</v>
+        <v>0.0001465853370233102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H15">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N15">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q15">
-        <v>18.05243182243888</v>
+        <v>23.87983212723811</v>
       </c>
       <c r="R15">
-        <v>18.05243182243888</v>
+        <v>214.918489145143</v>
       </c>
       <c r="S15">
-        <v>6.253967010917166E-05</v>
+        <v>6.975737038736087E-05</v>
       </c>
       <c r="T15">
-        <v>6.253967010917166E-05</v>
+        <v>6.975737038736087E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H16">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N16">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q16">
-        <v>1.134438039138443</v>
+        <v>2.087029075477111</v>
       </c>
       <c r="R16">
-        <v>1.134438039138443</v>
+        <v>18.783261679294</v>
       </c>
       <c r="S16">
-        <v>3.930073323352889E-06</v>
+        <v>6.096594793946998E-06</v>
       </c>
       <c r="T16">
-        <v>3.930073323352889E-06</v>
+        <v>6.096594793946998E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H17">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I17">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J17">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N17">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q17">
-        <v>163.7103822542193</v>
+        <v>227.905288058615</v>
       </c>
       <c r="R17">
-        <v>163.7103822542193</v>
+        <v>2051.147592527535</v>
       </c>
       <c r="S17">
-        <v>0.0005671475954225242</v>
+        <v>0.0006657531555345031</v>
       </c>
       <c r="T17">
-        <v>0.0005671475954225242</v>
+        <v>0.0006657531555345031</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H18">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I18">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J18">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N18">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q18">
-        <v>93.49956663771697</v>
+        <v>107.6513537797789</v>
       </c>
       <c r="R18">
-        <v>93.49956663771697</v>
+        <v>968.8621840180101</v>
       </c>
       <c r="S18">
-        <v>0.0003239138145147331</v>
+        <v>0.0003144693529797182</v>
       </c>
       <c r="T18">
-        <v>0.0003239138145147331</v>
+        <v>0.0003144693529797182</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H19">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I19">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J19">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N19">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q19">
-        <v>98.08130451569596</v>
+        <v>105.7395175248856</v>
       </c>
       <c r="R19">
-        <v>98.08130451569596</v>
+        <v>951.6556577239702</v>
       </c>
       <c r="S19">
-        <v>0.000339786489079239</v>
+        <v>0.000308884528553735</v>
       </c>
       <c r="T19">
-        <v>0.000339786489079239</v>
+        <v>0.000308884528553735</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H20">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N20">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q20">
-        <v>45.83525355609336</v>
+        <v>50.31956700683723</v>
       </c>
       <c r="R20">
-        <v>45.83525355609336</v>
+        <v>452.876103061535</v>
       </c>
       <c r="S20">
-        <v>0.0001587886698569484</v>
+        <v>0.0001469926863272948</v>
       </c>
       <c r="T20">
-        <v>0.0001587886698569484</v>
+        <v>0.0001469926863272948</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H21">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N21">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q21">
-        <v>2.880346297885262</v>
+        <v>4.397786334892222</v>
       </c>
       <c r="R21">
-        <v>2.880346297885262</v>
+        <v>39.58007701403</v>
       </c>
       <c r="S21">
-        <v>9.978484286311618E-06</v>
+        <v>1.284674065600445E-05</v>
       </c>
       <c r="T21">
-        <v>9.978484286311618E-06</v>
+        <v>1.284674065600445E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H22">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I22">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J22">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N22">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q22">
-        <v>11.32949884530913</v>
+        <v>32.104078967281</v>
       </c>
       <c r="R22">
-        <v>11.32949884530913</v>
+        <v>288.936710705529</v>
       </c>
       <c r="S22">
-        <v>3.92491785736682E-05</v>
+        <v>9.378190414124647E-05</v>
       </c>
       <c r="T22">
-        <v>3.92491785736682E-05</v>
+        <v>9.378190414124647E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H23">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I23">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J23">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N23">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q23">
-        <v>6.470592870609564</v>
+        <v>15.16440268727711</v>
       </c>
       <c r="R23">
-        <v>6.470592870609564</v>
+        <v>136.479624185494</v>
       </c>
       <c r="S23">
-        <v>2.241630089059157E-05</v>
+        <v>4.429800215190316E-05</v>
       </c>
       <c r="T23">
-        <v>2.241630089059157E-05</v>
+        <v>4.429800215190316E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H24">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I24">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J24">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N24">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q24">
-        <v>6.787669853042267</v>
+        <v>14.89509019074645</v>
       </c>
       <c r="R24">
-        <v>6.787669853042267</v>
+        <v>134.055811716718</v>
       </c>
       <c r="S24">
-        <v>2.351476175589752E-05</v>
+        <v>4.351129094428935E-05</v>
       </c>
       <c r="T24">
-        <v>2.351476175589752E-05</v>
+        <v>4.351129094428934E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H25">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I25">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J25">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N25">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q25">
-        <v>3.172006839687328</v>
+        <v>7.088310089458779</v>
       </c>
       <c r="R25">
-        <v>3.172006839687328</v>
+        <v>63.794790805129</v>
       </c>
       <c r="S25">
-        <v>1.098889408857942E-05</v>
+        <v>2.070625411837983E-05</v>
       </c>
       <c r="T25">
-        <v>1.098889408857942E-05</v>
+        <v>2.070625411837983E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H26">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N26">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O26">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P26">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q26">
-        <v>0.1993329904105116</v>
+        <v>0.6194980422757778</v>
       </c>
       <c r="R26">
-        <v>0.1993329904105116</v>
+        <v>5.575482380482</v>
       </c>
       <c r="S26">
-        <v>6.905562411072377E-07</v>
+        <v>1.809667428104926E-06</v>
       </c>
       <c r="T26">
-        <v>6.905562411072377E-07</v>
+        <v>1.809667428104926E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H27">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I27">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J27">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N27">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O27">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P27">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q27">
-        <v>12107.1062650758</v>
+        <v>19502.58722037174</v>
       </c>
       <c r="R27">
-        <v>12107.1062650758</v>
+        <v>175523.2849833457</v>
       </c>
       <c r="S27">
-        <v>0.0419430711187271</v>
+        <v>0.05697063501093502</v>
       </c>
       <c r="T27">
-        <v>0.0419430711187271</v>
+        <v>0.05697063501093502</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H28">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I28">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J28">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N28">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O28">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P28">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q28">
-        <v>6914.706162395515</v>
+        <v>9212.071972376823</v>
       </c>
       <c r="R28">
-        <v>6914.706162395515</v>
+        <v>82908.6477513914</v>
       </c>
       <c r="S28">
-        <v>0.02395485807959411</v>
+        <v>0.02691015218147762</v>
       </c>
       <c r="T28">
-        <v>0.02395485807959411</v>
+        <v>0.02691015218147762</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H29">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I29">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J29">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N29">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O29">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P29">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q29">
-        <v>7253.545926884459</v>
+        <v>9048.470005833</v>
       </c>
       <c r="R29">
-        <v>7253.545926884459</v>
+        <v>81436.23005249699</v>
       </c>
       <c r="S29">
-        <v>0.02512871251092164</v>
+        <v>0.02643224082450117</v>
       </c>
       <c r="T29">
-        <v>0.02512871251092164</v>
+        <v>0.02643224082450117</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H30">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I30">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J30">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N30">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O30">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P30">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q30">
-        <v>3389.719563592391</v>
+        <v>4306.006906648813</v>
       </c>
       <c r="R30">
-        <v>3389.719563592391</v>
+        <v>38754.06215983932</v>
       </c>
       <c r="S30">
-        <v>0.01174312388241073</v>
+        <v>0.01257863610921356</v>
       </c>
       <c r="T30">
-        <v>0.01174312388241073</v>
+        <v>0.01257863610921356</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H31">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I31">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J31">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N31">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O31">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P31">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q31">
-        <v>213.0143380556169</v>
+        <v>376.3326963731346</v>
       </c>
       <c r="R31">
-        <v>213.0143380556169</v>
+        <v>3386.994267358212</v>
       </c>
       <c r="S31">
-        <v>0.0007379530116248946</v>
+        <v>0.001099336844157757</v>
       </c>
       <c r="T31">
-        <v>0.0007379530116248946</v>
+        <v>0.001099336844157757</v>
       </c>
     </row>
   </sheetData>
